--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-composition-pharmaceuticaladvice.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-composition-pharmaceuticaladvice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9364" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9326" uniqueCount="839">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -433,7 +433,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -862,7 +862,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.typeCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.typeCode</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -1506,7 +1506,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-epr-term/ValueSet/DocumentEntry.confidentialityCode</t>
+    <t>http://fhir.ch/ig/ch-term/ValueSet/DocumentEntry.confidentialityCode</t>
   </si>
   <si>
     <t>Composition.confidentiality.extension:confidentialityCode.value[x]:valueCodeableConcept.id</t>
@@ -1986,7 +1986,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:code}
+    <t xml:space="preserve">value:code}
 </t>
   </si>
   <si>
@@ -2354,25 +2354,6 @@
   </si>
   <si>
     <t>Composition.section:originalRepresentation.entry.extension</t>
-  </si>
-  <si>
-    <t>Composition.section:originalRepresentation.entry.extension:narrativeLink</t>
-  </si>
-  <si>
-    <t>narrativeLink</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {narrativeLink}
-</t>
-  </si>
-  <si>
-    <t>narrativeLink to img src attribute</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept (resource/element), as a url that is a reference to a portion of the narrative of a resource ([DomainResource.text](http://hl7.org/fhir/R4/narrative.html)).</t>
-  </si>
-  <si>
-    <t>It's also possible to link to the resource narrative using the [originalText extension](http://hl7.org/fhir/R4/extension-originaltext.html) which claims that the data is derived from the text provided or linked to.</t>
   </si>
   <si>
     <t>Composition.section:originalRepresentation.entry.reference</t>
@@ -2956,7 +2937,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO252"/>
+  <dimension ref="A1:AO251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2965,15 +2946,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="99.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="103.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="63.05078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2984,27 +2965,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="74.53125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.84765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="57.25390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="70.4609375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="59.37109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="73.69140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -24288,11 +24269,9 @@
         <v>753</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="C183" t="s" s="2">
-        <v>754</v>
-      </c>
+        <v>691</v>
+      </c>
+      <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
         <v>79</v>
       </c>
@@ -24310,19 +24289,19 @@
         <v>79</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>755</v>
+        <v>106</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>756</v>
+        <v>350</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>757</v>
+        <v>351</v>
       </c>
       <c r="N183" t="s" s="2">
-        <v>758</v>
+        <v>352</v>
       </c>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
@@ -24372,25 +24351,25 @@
         <v>79</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH183" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>79</v>
@@ -24404,10 +24383,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -24430,16 +24409,16 @@
         <v>93</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
@@ -24465,13 +24444,13 @@
         <v>79</v>
       </c>
       <c r="X184" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>79</v>
@@ -24489,7 +24468,7 @@
         <v>79</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -24498,7 +24477,7 @@
         <v>92</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>104</v>
@@ -24521,10 +24500,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24547,16 +24526,16 @@
         <v>93</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N185" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -24582,13 +24561,13 @@
         <v>79</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>79</v>
@@ -24606,7 +24585,7 @@
         <v>79</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -24624,7 +24603,7 @@
         <v>79</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>79</v>
@@ -24638,10 +24617,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -24664,16 +24643,16 @@
         <v>93</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N186" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O186" s="2"/>
       <c r="P186" t="s" s="2">
@@ -24723,7 +24702,7 @@
         <v>79</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -24741,7 +24720,7 @@
         <v>79</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>367</v>
+        <v>179</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>79</v>
@@ -24755,10 +24734,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -24778,21 +24757,23 @@
         <v>79</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>369</v>
+        <v>113</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>370</v>
+        <v>114</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O187" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="O187" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="P187" t="s" s="2">
         <v>79</v>
       </c>
@@ -24816,13 +24797,13 @@
         <v>79</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y187" t="s" s="2">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="Z187" t="s" s="2">
-        <v>79</v>
+        <v>701</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>79</v>
@@ -24840,7 +24821,7 @@
         <v>79</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>372</v>
+        <v>695</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -24849,7 +24830,7 @@
         <v>92</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>104</v>
@@ -24858,10 +24839,10 @@
         <v>79</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>179</v>
+        <v>702</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>79</v>
@@ -24872,10 +24853,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -24886,7 +24867,7 @@
         <v>80</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H188" t="s" s="2">
         <v>79</v>
@@ -24898,7 +24879,7 @@
         <v>79</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L188" t="s" s="2">
         <v>113</v>
@@ -24907,11 +24888,9 @@
         <v>114</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>699</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
         <v>79</v>
       </c>
@@ -24935,13 +24914,13 @@
         <v>79</v>
       </c>
       <c r="X188" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y188" t="s" s="2">
-        <v>700</v>
+        <v>79</v>
       </c>
       <c r="Z188" t="s" s="2">
-        <v>701</v>
+        <v>79</v>
       </c>
       <c r="AA188" t="s" s="2">
         <v>79</v>
@@ -24959,16 +24938,16 @@
         <v>79</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>104</v>
@@ -24977,10 +24956,10 @@
         <v>79</v>
       </c>
       <c r="AL188" t="s" s="2">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="AM188" t="s" s="2">
-        <v>110</v>
+        <v>707</v>
       </c>
       <c r="AN188" t="s" s="2">
         <v>79</v>
@@ -24991,21 +24970,23 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C189" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>760</v>
+      </c>
       <c r="D189" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E189" s="2"/>
       <c r="F189" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H189" t="s" s="2">
         <v>79</v>
@@ -25017,17 +24998,15 @@
         <v>79</v>
       </c>
       <c r="K189" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>113</v>
+        <v>761</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" t="s" s="2">
         <v>79</v>
@@ -25076,7 +25055,7 @@
         <v>79</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>703</v>
+        <v>631</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>80</v>
@@ -25085,10 +25064,10 @@
         <v>81</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ189" t="s" s="2">
-        <v>104</v>
+        <v>635</v>
       </c>
       <c r="AK189" t="s" s="2">
         <v>79</v>
@@ -25097,7 +25076,7 @@
         <v>636</v>
       </c>
       <c r="AM189" t="s" s="2">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="AN189" t="s" s="2">
         <v>79</v>
@@ -25108,20 +25087,18 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C190" t="s" s="2">
-        <v>766</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>92</v>
@@ -25136,13 +25113,13 @@
         <v>79</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>506</v>
+        <v>106</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>767</v>
+        <v>107</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>633</v>
+        <v>108</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -25193,28 +25170,28 @@
         <v>79</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>631</v>
+        <v>109</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH190" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI190" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL190" t="s" s="2">
-        <v>636</v>
+        <v>110</v>
       </c>
       <c r="AM190" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="AN190" t="s" s="2">
         <v>79</v>
@@ -25225,21 +25202,21 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E191" s="2"/>
       <c r="F191" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G191" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H191" t="s" s="2">
         <v>79</v>
@@ -25251,15 +25228,17 @@
         <v>79</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N191" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
         <v>79</v>
@@ -25308,19 +25287,19 @@
         <v>79</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH191" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI191" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ191" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK191" t="s" s="2">
         <v>79</v>
@@ -25340,43 +25319,41 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E192" s="2"/>
       <c r="F192" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G192" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H192" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I192" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
         <v>79</v>
@@ -25425,7 +25402,7 @@
         <v>79</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>118</v>
+        <v>520</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -25443,7 +25420,7 @@
         <v>79</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>79</v>
@@ -25457,42 +25434,46 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H193" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I193" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J193" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>181</v>
+        <v>766</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O193" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="P193" t="s" s="2">
         <v>79</v>
       </c>
@@ -25540,28 +25521,28 @@
         <v>79</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI193" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ193" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK193" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AM193" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AN193" t="s" s="2">
         <v>79</v>
@@ -25572,14 +25553,14 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="E194" s="2"/>
       <c r="F194" t="s" s="2">
@@ -25598,19 +25579,19 @@
         <v>79</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>772</v>
+        <v>648</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="N194" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="O194" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>79</v>
@@ -25620,7 +25601,7 @@
         <v>79</v>
       </c>
       <c r="S194" t="s" s="2">
-        <v>79</v>
+        <v>768</v>
       </c>
       <c r="T194" t="s" s="2">
         <v>79</v>
@@ -25635,13 +25616,13 @@
         <v>79</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>79</v>
@@ -25659,7 +25640,7 @@
         <v>79</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -25677,10 +25658,10 @@
         <v>79</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>441</v>
+        <v>273</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>442</v>
+        <v>274</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>79</v>
@@ -25691,10 +25672,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -25702,10 +25683,10 @@
       </c>
       <c r="E195" s="2"/>
       <c r="F195" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G195" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H195" t="s" s="2">
         <v>79</v>
@@ -25717,19 +25698,17 @@
         <v>79</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>220</v>
+        <v>655</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>648</v>
+        <v>113</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>650</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N195" s="2"/>
       <c r="O195" t="s" s="2">
-        <v>651</v>
+        <v>397</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>79</v>
@@ -25739,7 +25718,7 @@
         <v>79</v>
       </c>
       <c r="S195" t="s" s="2">
-        <v>774</v>
+        <v>79</v>
       </c>
       <c r="T195" t="s" s="2">
         <v>79</v>
@@ -25754,13 +25733,13 @@
         <v>79</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y195" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Z195" t="s" s="2">
-        <v>653</v>
+        <v>79</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>79</v>
@@ -25778,13 +25757,13 @@
         <v>79</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH195" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI195" t="s" s="2">
         <v>79</v>
@@ -25796,24 +25775,24 @@
         <v>79</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>273</v>
+        <v>401</v>
       </c>
       <c r="AM195" t="s" s="2">
-        <v>274</v>
+        <v>402</v>
       </c>
       <c r="AN195" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO195" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -25824,7 +25803,7 @@
         <v>80</v>
       </c>
       <c r="G196" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H196" t="s" s="2">
         <v>79</v>
@@ -25836,18 +25815,18 @@
         <v>79</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>113</v>
+        <v>771</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N196" s="2"/>
-      <c r="O196" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="N196" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O196" s="2"/>
       <c r="P196" t="s" s="2">
         <v>79</v>
       </c>
@@ -25895,13 +25874,13 @@
         <v>79</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI196" t="s" s="2">
         <v>79</v>
@@ -25913,24 +25892,24 @@
         <v>79</v>
       </c>
       <c r="AL196" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AM196" t="s" s="2">
-        <v>402</v>
+        <v>660</v>
       </c>
       <c r="AN196" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO196" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -25938,7 +25917,7 @@
       </c>
       <c r="E197" s="2"/>
       <c r="F197" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G197" t="s" s="2">
         <v>92</v>
@@ -25953,16 +25932,16 @@
         <v>79</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>627</v>
+        <v>166</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>778</v>
+        <v>663</v>
       </c>
       <c r="N197" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
@@ -26012,7 +25991,7 @@
         <v>79</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>80</v>
@@ -26021,7 +26000,7 @@
         <v>92</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>104</v>
@@ -26030,10 +26009,10 @@
         <v>79</v>
       </c>
       <c r="AL197" t="s" s="2">
-        <v>79</v>
+        <v>666</v>
       </c>
       <c r="AM197" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AN197" t="s" s="2">
         <v>79</v>
@@ -26044,10 +26023,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -26055,7 +26034,7 @@
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G198" t="s" s="2">
         <v>92</v>
@@ -26070,18 +26049,20 @@
         <v>79</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>780</v>
+        <v>668</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="N198" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O198" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="O198" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P198" t="s" s="2">
         <v>79</v>
       </c>
@@ -26105,13 +26086,13 @@
         <v>79</v>
       </c>
       <c r="X198" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y198" t="s" s="2">
-        <v>79</v>
+        <v>673</v>
       </c>
       <c r="Z198" t="s" s="2">
-        <v>79</v>
+        <v>674</v>
       </c>
       <c r="AA198" t="s" s="2">
         <v>79</v>
@@ -26129,7 +26110,7 @@
         <v>79</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -26138,7 +26119,7 @@
         <v>92</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ198" t="s" s="2">
         <v>104</v>
@@ -26147,24 +26128,24 @@
         <v>79</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="AM198" t="s" s="2">
-        <v>666</v>
+        <v>110</v>
       </c>
       <c r="AN198" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO198" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26187,19 +26168,19 @@
         <v>79</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="O199" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="P199" t="s" s="2">
         <v>79</v>
@@ -26224,13 +26205,13 @@
         <v>79</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>79</v>
@@ -26248,7 +26229,7 @@
         <v>79</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>80</v>
@@ -26266,7 +26247,7 @@
         <v>79</v>
       </c>
       <c r="AL199" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="AM199" t="s" s="2">
         <v>110</v>
@@ -26275,15 +26256,15 @@
         <v>79</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -26291,7 +26272,7 @@
       </c>
       <c r="E200" s="2"/>
       <c r="F200" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G200" t="s" s="2">
         <v>92</v>
@@ -26306,20 +26287,18 @@
         <v>79</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>220</v>
+        <v>778</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>746</v>
+        <v>779</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O200" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="O200" s="2"/>
       <c r="P200" t="s" s="2">
         <v>79</v>
       </c>
@@ -26343,13 +26322,13 @@
         <v>79</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>79</v>
@@ -26367,16 +26346,16 @@
         <v>79</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH200" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>104</v>
@@ -26385,10 +26364,10 @@
         <v>79</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="AM200" t="s" s="2">
-        <v>110</v>
+        <v>688</v>
       </c>
       <c r="AN200" t="s" s="2">
         <v>79</v>
@@ -26399,10 +26378,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -26410,7 +26389,7 @@
       </c>
       <c r="E201" s="2"/>
       <c r="F201" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G201" t="s" s="2">
         <v>92</v>
@@ -26425,17 +26404,15 @@
         <v>79</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>784</v>
+        <v>106</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>785</v>
+        <v>107</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="N201" t="s" s="2">
-        <v>685</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="P201" t="s" s="2">
         <v>79</v>
@@ -26484,28 +26461,28 @@
         <v>79</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>682</v>
+        <v>109</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>686</v>
+        <v>79</v>
       </c>
       <c r="AJ201" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK201" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL201" t="s" s="2">
-        <v>687</v>
+        <v>110</v>
       </c>
       <c r="AM201" t="s" s="2">
-        <v>688</v>
+        <v>79</v>
       </c>
       <c r="AN201" t="s" s="2">
         <v>79</v>
@@ -26516,21 +26493,21 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E202" s="2"/>
       <c r="F202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G202" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H202" t="s" s="2">
         <v>79</v>
@@ -26542,15 +26519,17 @@
         <v>79</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N202" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N202" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O202" s="2"/>
       <c r="P202" t="s" s="2">
         <v>79</v>
@@ -26587,31 +26566,31 @@
         <v>79</v>
       </c>
       <c r="AB202" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC202" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD202" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH202" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI202" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK202" t="s" s="2">
         <v>79</v>
@@ -26631,21 +26610,21 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E203" s="2"/>
       <c r="F203" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G203" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H203" t="s" s="2">
         <v>79</v>
@@ -26654,19 +26633,19 @@
         <v>79</v>
       </c>
       <c r="J203" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N203" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O203" s="2"/>
       <c r="P203" t="s" s="2">
@@ -26704,37 +26683,37 @@
         <v>79</v>
       </c>
       <c r="AB203" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC203" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD203" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>118</v>
+        <v>353</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH203" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI203" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AJ203" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK203" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL203" t="s" s="2">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="AM203" t="s" s="2">
         <v>79</v>
@@ -26748,10 +26727,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -26759,7 +26738,7 @@
       </c>
       <c r="E204" s="2"/>
       <c r="F204" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G204" t="s" s="2">
         <v>92</v>
@@ -26774,16 +26753,16 @@
         <v>93</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="O204" s="2"/>
       <c r="P204" t="s" s="2">
@@ -26809,13 +26788,13 @@
         <v>79</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AA204" t="s" s="2">
         <v>79</v>
@@ -26833,7 +26812,7 @@
         <v>79</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>80</v>
@@ -26842,7 +26821,7 @@
         <v>92</v>
       </c>
       <c r="AI204" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AJ204" t="s" s="2">
         <v>104</v>
@@ -26865,10 +26844,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -26891,16 +26870,16 @@
         <v>93</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N205" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="O205" s="2"/>
       <c r="P205" t="s" s="2">
@@ -26926,13 +26905,13 @@
         <v>79</v>
       </c>
       <c r="X205" t="s" s="2">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="Y205" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Z205" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AA205" t="s" s="2">
         <v>79</v>
@@ -26950,7 +26929,7 @@
         <v>79</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>80</v>
@@ -26968,7 +26947,7 @@
         <v>79</v>
       </c>
       <c r="AL205" t="s" s="2">
-        <v>179</v>
+        <v>367</v>
       </c>
       <c r="AM205" t="s" s="2">
         <v>79</v>
@@ -26982,10 +26961,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -27008,16 +26987,16 @@
         <v>93</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="N206" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="O206" s="2"/>
       <c r="P206" t="s" s="2">
@@ -27067,7 +27046,7 @@
         <v>79</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>80</v>
@@ -27085,7 +27064,7 @@
         <v>79</v>
       </c>
       <c r="AL206" t="s" s="2">
-        <v>367</v>
+        <v>179</v>
       </c>
       <c r="AM206" t="s" s="2">
         <v>79</v>
@@ -27099,10 +27078,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -27122,21 +27101,23 @@
         <v>79</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>369</v>
+        <v>696</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>370</v>
+        <v>697</v>
       </c>
       <c r="N207" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O207" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="O207" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="P207" t="s" s="2">
         <v>79</v>
       </c>
@@ -27160,13 +27141,13 @@
         <v>79</v>
       </c>
       <c r="X207" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y207" t="s" s="2">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="Z207" t="s" s="2">
-        <v>79</v>
+        <v>701</v>
       </c>
       <c r="AA207" t="s" s="2">
         <v>79</v>
@@ -27184,7 +27165,7 @@
         <v>79</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>372</v>
+        <v>695</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>80</v>
@@ -27193,7 +27174,7 @@
         <v>92</v>
       </c>
       <c r="AI207" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AJ207" t="s" s="2">
         <v>104</v>
@@ -27202,10 +27183,10 @@
         <v>79</v>
       </c>
       <c r="AL207" t="s" s="2">
-        <v>179</v>
+        <v>702</v>
       </c>
       <c r="AM207" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="AN207" t="s" s="2">
         <v>79</v>
@@ -27216,10 +27197,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -27230,7 +27211,7 @@
         <v>80</v>
       </c>
       <c r="G208" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H208" t="s" s="2">
         <v>79</v>
@@ -27242,20 +27223,18 @@
         <v>79</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O208" t="s" s="2">
-        <v>699</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
         <v>79</v>
       </c>
@@ -27279,13 +27258,13 @@
         <v>79</v>
       </c>
       <c r="X208" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>700</v>
+        <v>79</v>
       </c>
       <c r="Z208" t="s" s="2">
-        <v>701</v>
+        <v>79</v>
       </c>
       <c r="AA208" t="s" s="2">
         <v>79</v>
@@ -27303,16 +27282,16 @@
         <v>79</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH208" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI208" t="s" s="2">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="AJ208" t="s" s="2">
         <v>104</v>
@@ -27321,10 +27300,10 @@
         <v>79</v>
       </c>
       <c r="AL208" t="s" s="2">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>110</v>
+        <v>707</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>79</v>
@@ -27335,12 +27314,14 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C209" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="C209" t="s" s="2">
+        <v>789</v>
+      </c>
       <c r="D209" t="s" s="2">
         <v>79</v>
       </c>
@@ -27349,7 +27330,7 @@
         <v>80</v>
       </c>
       <c r="G209" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H209" t="s" s="2">
         <v>79</v>
@@ -27361,17 +27342,15 @@
         <v>79</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>704</v>
+        <v>790</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="N209" s="2"/>
       <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
         <v>79</v>
@@ -27420,7 +27399,7 @@
         <v>79</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>703</v>
+        <v>631</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>80</v>
@@ -27429,10 +27408,10 @@
         <v>81</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>104</v>
+        <v>635</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>79</v>
@@ -27441,7 +27420,7 @@
         <v>636</v>
       </c>
       <c r="AM209" t="s" s="2">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="AN209" t="s" s="2">
         <v>79</v>
@@ -27452,14 +27431,12 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C210" t="s" s="2">
-        <v>795</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
         <v>79</v>
       </c>
@@ -27480,13 +27457,13 @@
         <v>79</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>506</v>
+        <v>106</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>796</v>
+        <v>113</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>633</v>
+        <v>114</v>
       </c>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
@@ -27537,28 +27514,28 @@
         <v>79</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>631</v>
+        <v>109</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="AK210" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL210" t="s" s="2">
-        <v>636</v>
+        <v>110</v>
       </c>
       <c r="AM210" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="AN210" t="s" s="2">
         <v>79</v>
@@ -27569,21 +27546,21 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H211" t="s" s="2">
         <v>79</v>
@@ -27595,15 +27572,17 @@
         <v>79</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>113</v>
+        <v>346</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N211" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N211" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O211" s="2"/>
       <c r="P211" t="s" s="2">
         <v>79</v>
@@ -27652,19 +27631,19 @@
         <v>79</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI211" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>79</v>
@@ -27684,43 +27663,41 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E212" s="2"/>
       <c r="F212" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G212" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H212" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I212" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J212" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K212" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N212" s="2"/>
       <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>79</v>
@@ -27769,7 +27746,7 @@
         <v>79</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>118</v>
+        <v>520</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>80</v>
@@ -27787,7 +27764,7 @@
         <v>79</v>
       </c>
       <c r="AL212" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM212" t="s" s="2">
         <v>79</v>
@@ -27801,42 +27778,46 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="E213" s="2"/>
       <c r="F213" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I213" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>181</v>
+        <v>795</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="N213" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O213" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="P213" t="s" s="2">
         <v>79</v>
       </c>
@@ -27884,28 +27865,28 @@
         <v>79</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH213" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI213" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL213" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AM213" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AN213" t="s" s="2">
         <v>79</v>
@@ -27916,14 +27897,14 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
@@ -27942,19 +27923,19 @@
         <v>79</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>801</v>
+        <v>648</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="O214" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>79</v>
@@ -27964,7 +27945,7 @@
         <v>79</v>
       </c>
       <c r="S214" t="s" s="2">
-        <v>79</v>
+        <v>797</v>
       </c>
       <c r="T214" t="s" s="2">
         <v>79</v>
@@ -27979,13 +27960,13 @@
         <v>79</v>
       </c>
       <c r="X214" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Y214" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z214" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="AA214" t="s" s="2">
         <v>79</v>
@@ -28003,7 +27984,7 @@
         <v>79</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>80</v>
@@ -28021,10 +28002,10 @@
         <v>79</v>
       </c>
       <c r="AL214" t="s" s="2">
-        <v>441</v>
+        <v>273</v>
       </c>
       <c r="AM214" t="s" s="2">
-        <v>442</v>
+        <v>274</v>
       </c>
       <c r="AN214" t="s" s="2">
         <v>79</v>
@@ -28035,10 +28016,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>647</v>
+        <v>719</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -28046,7 +28027,7 @@
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G215" t="s" s="2">
         <v>92</v>
@@ -28061,20 +28042,16 @@
         <v>79</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>648</v>
+        <v>107</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N215" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O215" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
       <c r="P215" t="s" s="2">
         <v>79</v>
       </c>
@@ -28083,7 +28060,7 @@
         <v>79</v>
       </c>
       <c r="S215" t="s" s="2">
-        <v>803</v>
+        <v>79</v>
       </c>
       <c r="T215" t="s" s="2">
         <v>79</v>
@@ -28098,13 +28075,13 @@
         <v>79</v>
       </c>
       <c r="X215" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y215" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Z215" t="s" s="2">
-        <v>653</v>
+        <v>79</v>
       </c>
       <c r="AA215" t="s" s="2">
         <v>79</v>
@@ -28122,7 +28099,7 @@
         <v>79</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>647</v>
+        <v>109</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>80</v>
@@ -28134,16 +28111,16 @@
         <v>79</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL215" t="s" s="2">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="AM215" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AN215" t="s" s="2">
         <v>79</v>
@@ -28154,10 +28131,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -28168,7 +28145,7 @@
         <v>80</v>
       </c>
       <c r="G216" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H216" t="s" s="2">
         <v>79</v>
@@ -28180,13 +28157,13 @@
         <v>79</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -28225,37 +28202,37 @@
         <v>79</v>
       </c>
       <c r="AB216" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC216" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH216" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ216" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK216" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL216" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM216" t="s" s="2">
         <v>79</v>
@@ -28269,10 +28246,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -28292,19 +28269,23 @@
         <v>79</v>
       </c>
       <c r="J217" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N217" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O217" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P217" t="s" s="2">
         <v>79</v>
       </c>
@@ -28340,19 +28321,19 @@
         <v>79</v>
       </c>
       <c r="AB217" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC217" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD217" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE217" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>80</v>
@@ -28364,13 +28345,13 @@
         <v>79</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL217" t="s" s="2">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="AM217" t="s" s="2">
         <v>79</v>
@@ -28384,10 +28365,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -28398,7 +28379,7 @@
         <v>80</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>79</v>
@@ -28407,23 +28388,19 @@
         <v>79</v>
       </c>
       <c r="J218" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O218" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
         <v>79</v>
       </c>
@@ -28471,25 +28448,25 @@
         <v>79</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK218" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL218" t="s" s="2">
-        <v>285</v>
+        <v>110</v>
       </c>
       <c r="AM218" t="s" s="2">
         <v>79</v>
@@ -28503,10 +28480,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -28517,7 +28494,7 @@
         <v>80</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>79</v>
@@ -28529,13 +28506,13 @@
         <v>79</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
@@ -28574,37 +28551,37 @@
         <v>79</v>
       </c>
       <c r="AB219" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC219" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD219" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE219" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI219" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL219" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM219" t="s" s="2">
         <v>79</v>
@@ -28618,10 +28595,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -28632,7 +28609,7 @@
         <v>80</v>
       </c>
       <c r="G220" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H220" t="s" s="2">
         <v>79</v>
@@ -28641,19 +28618,23 @@
         <v>79</v>
       </c>
       <c r="J220" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N220" s="2"/>
-      <c r="O220" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N220" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O220" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P220" t="s" s="2">
         <v>79</v>
       </c>
@@ -28689,37 +28670,37 @@
         <v>79</v>
       </c>
       <c r="AB220" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC220" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD220" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>118</v>
+        <v>293</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH220" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI220" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK220" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL220" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
       <c r="AM220" t="s" s="2">
         <v>79</v>
@@ -28733,10 +28714,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -28759,20 +28740,18 @@
         <v>93</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="N221" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O221" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="O221" s="2"/>
       <c r="P221" t="s" s="2">
         <v>79</v>
       </c>
@@ -28820,7 +28799,7 @@
         <v>79</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>80</v>
@@ -28838,7 +28817,7 @@
         <v>79</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AM221" t="s" s="2">
         <v>79</v>
@@ -28852,10 +28831,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -28878,18 +28857,18 @@
         <v>93</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>113</v>
+        <v>300</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O222" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N222" s="2"/>
+      <c r="O222" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P222" t="s" s="2">
         <v>79</v>
       </c>
@@ -28937,7 +28916,7 @@
         <v>79</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>80</v>
@@ -28955,7 +28934,7 @@
         <v>79</v>
       </c>
       <c r="AL222" t="s" s="2">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="AM222" t="s" s="2">
         <v>79</v>
@@ -28969,10 +28948,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -28995,17 +28974,17 @@
         <v>93</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>79</v>
@@ -29054,7 +29033,7 @@
         <v>79</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>80</v>
@@ -29072,7 +29051,7 @@
         <v>79</v>
       </c>
       <c r="AL223" t="s" s="2">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="AM223" t="s" s="2">
         <v>79</v>
@@ -29086,10 +29065,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -29112,17 +29091,19 @@
         <v>93</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>106</v>
+        <v>311</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>305</v>
+        <v>113</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N224" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N224" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="O224" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P224" t="s" s="2">
         <v>79</v>
@@ -29171,7 +29152,7 @@
         <v>79</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>80</v>
@@ -29189,7 +29170,7 @@
         <v>79</v>
       </c>
       <c r="AL224" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AM224" t="s" s="2">
         <v>79</v>
@@ -29203,10 +29184,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -29229,19 +29210,19 @@
         <v>93</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>311</v>
+        <v>106</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>113</v>
+        <v>317</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="O225" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="P225" t="s" s="2">
         <v>79</v>
@@ -29290,7 +29271,7 @@
         <v>79</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>80</v>
@@ -29308,7 +29289,7 @@
         <v>79</v>
       </c>
       <c r="AL225" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="AM225" t="s" s="2">
         <v>79</v>
@@ -29322,10 +29303,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>739</v>
+        <v>654</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -29336,7 +29317,7 @@
         <v>80</v>
       </c>
       <c r="G226" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H226" t="s" s="2">
         <v>79</v>
@@ -29345,22 +29326,20 @@
         <v>79</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>106</v>
+        <v>655</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>317</v>
+        <v>656</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N226" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="N226" s="2"/>
       <c r="O226" t="s" s="2">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="P226" t="s" s="2">
         <v>79</v>
@@ -29409,13 +29388,13 @@
         <v>79</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>321</v>
+        <v>654</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH226" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI226" t="s" s="2">
         <v>79</v>
@@ -29427,24 +29406,24 @@
         <v>79</v>
       </c>
       <c r="AL226" t="s" s="2">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AN226" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO226" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -29455,7 +29434,7 @@
         <v>80</v>
       </c>
       <c r="G227" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H227" t="s" s="2">
         <v>79</v>
@@ -29467,18 +29446,18 @@
         <v>79</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>656</v>
+        <v>113</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N227" s="2"/>
-      <c r="O227" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N227" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
         <v>79</v>
       </c>
@@ -29526,13 +29505,13 @@
         <v>79</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH227" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI227" t="s" s="2">
         <v>79</v>
@@ -29544,24 +29523,24 @@
         <v>79</v>
       </c>
       <c r="AL227" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>402</v>
+        <v>660</v>
       </c>
       <c r="AN227" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO227" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -29569,7 +29548,7 @@
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G228" t="s" s="2">
         <v>92</v>
@@ -29584,16 +29563,16 @@
         <v>79</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>627</v>
+        <v>166</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>113</v>
+        <v>774</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>114</v>
+        <v>663</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -29643,7 +29622,7 @@
         <v>79</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>80</v>
@@ -29652,7 +29631,7 @@
         <v>92</v>
       </c>
       <c r="AI228" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ228" t="s" s="2">
         <v>104</v>
@@ -29661,10 +29640,10 @@
         <v>79</v>
       </c>
       <c r="AL228" t="s" s="2">
-        <v>79</v>
+        <v>666</v>
       </c>
       <c r="AM228" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AN228" t="s" s="2">
         <v>79</v>
@@ -29675,10 +29654,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -29686,7 +29665,7 @@
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G229" t="s" s="2">
         <v>92</v>
@@ -29701,18 +29680,20 @@
         <v>79</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>780</v>
+        <v>668</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="N229" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O229" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P229" t="s" s="2">
         <v>79</v>
       </c>
@@ -29736,13 +29717,13 @@
         <v>79</v>
       </c>
       <c r="X229" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y229" t="s" s="2">
-        <v>79</v>
+        <v>673</v>
       </c>
       <c r="Z229" t="s" s="2">
-        <v>79</v>
+        <v>674</v>
       </c>
       <c r="AA229" t="s" s="2">
         <v>79</v>
@@ -29760,7 +29741,7 @@
         <v>79</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>80</v>
@@ -29769,7 +29750,7 @@
         <v>92</v>
       </c>
       <c r="AI229" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ229" t="s" s="2">
         <v>104</v>
@@ -29778,24 +29759,24 @@
         <v>79</v>
       </c>
       <c r="AL229" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>666</v>
+        <v>110</v>
       </c>
       <c r="AN229" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO229" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -29818,19 +29799,19 @@
         <v>79</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="O230" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>79</v>
@@ -29855,13 +29836,13 @@
         <v>79</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="Z230" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="AA230" t="s" s="2">
         <v>79</v>
@@ -29879,7 +29860,7 @@
         <v>79</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>80</v>
@@ -29897,7 +29878,7 @@
         <v>79</v>
       </c>
       <c r="AL230" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="AM230" t="s" s="2">
         <v>110</v>
@@ -29906,15 +29887,15 @@
         <v>79</v>
       </c>
       <c r="AO230" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -29925,7 +29906,7 @@
         <v>80</v>
       </c>
       <c r="G231" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H231" t="s" s="2">
         <v>79</v>
@@ -29937,20 +29918,18 @@
         <v>79</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>220</v>
+        <v>627</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>746</v>
+        <v>683</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="N231" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O231" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="O231" s="2"/>
       <c r="P231" t="s" s="2">
         <v>79</v>
       </c>
@@ -29974,13 +29953,13 @@
         <v>79</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Z231" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AA231" t="s" s="2">
         <v>79</v>
@@ -29998,16 +29977,16 @@
         <v>79</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH231" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI231" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AJ231" t="s" s="2">
         <v>104</v>
@@ -30016,10 +29995,10 @@
         <v>79</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="AM231" t="s" s="2">
-        <v>110</v>
+        <v>688</v>
       </c>
       <c r="AN231" t="s" s="2">
         <v>79</v>
@@ -30030,10 +30009,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -30044,7 +30023,7 @@
         <v>80</v>
       </c>
       <c r="G232" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H232" t="s" s="2">
         <v>79</v>
@@ -30056,18 +30035,20 @@
         <v>79</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>627</v>
+        <v>220</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>683</v>
+        <v>113</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>684</v>
+        <v>114</v>
       </c>
       <c r="N232" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O232" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="O232" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="P232" t="s" s="2">
         <v>79</v>
       </c>
@@ -30091,13 +30072,13 @@
         <v>79</v>
       </c>
       <c r="X232" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y232" t="s" s="2">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="Z232" t="s" s="2">
-        <v>79</v>
+        <v>701</v>
       </c>
       <c r="AA232" t="s" s="2">
         <v>79</v>
@@ -30115,13 +30096,13 @@
         <v>79</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH232" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI232" t="s" s="2">
         <v>686</v>
@@ -30133,10 +30114,10 @@
         <v>79</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="AM232" t="s" s="2">
-        <v>688</v>
+        <v>110</v>
       </c>
       <c r="AN232" t="s" s="2">
         <v>79</v>
@@ -30147,10 +30128,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -30161,7 +30142,7 @@
         <v>80</v>
       </c>
       <c r="G233" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H233" t="s" s="2">
         <v>79</v>
@@ -30173,7 +30154,7 @@
         <v>79</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L233" t="s" s="2">
         <v>113</v>
@@ -30182,11 +30163,9 @@
         <v>114</v>
       </c>
       <c r="N233" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O233" t="s" s="2">
-        <v>699</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="O233" s="2"/>
       <c r="P233" t="s" s="2">
         <v>79</v>
       </c>
@@ -30210,13 +30189,13 @@
         <v>79</v>
       </c>
       <c r="X233" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y233" t="s" s="2">
-        <v>700</v>
+        <v>79</v>
       </c>
       <c r="Z233" t="s" s="2">
-        <v>701</v>
+        <v>79</v>
       </c>
       <c r="AA233" t="s" s="2">
         <v>79</v>
@@ -30234,16 +30213,16 @@
         <v>79</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH233" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI233" t="s" s="2">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="AJ233" t="s" s="2">
         <v>104</v>
@@ -30252,10 +30231,10 @@
         <v>79</v>
       </c>
       <c r="AL233" t="s" s="2">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="AM233" t="s" s="2">
-        <v>110</v>
+        <v>707</v>
       </c>
       <c r="AN233" t="s" s="2">
         <v>79</v>
@@ -30266,12 +30245,14 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C234" s="2"/>
+        <v>631</v>
+      </c>
+      <c r="C234" t="s" s="2">
+        <v>818</v>
+      </c>
       <c r="D234" t="s" s="2">
         <v>79</v>
       </c>
@@ -30280,7 +30261,7 @@
         <v>80</v>
       </c>
       <c r="G234" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H234" t="s" s="2">
         <v>79</v>
@@ -30292,17 +30273,15 @@
         <v>79</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>113</v>
+        <v>819</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N234" t="s" s="2">
-        <v>706</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="N234" s="2"/>
       <c r="O234" s="2"/>
       <c r="P234" t="s" s="2">
         <v>79</v>
@@ -30351,7 +30330,7 @@
         <v>79</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>703</v>
+        <v>631</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>80</v>
@@ -30360,10 +30339,10 @@
         <v>81</v>
       </c>
       <c r="AI234" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ234" t="s" s="2">
-        <v>104</v>
+        <v>635</v>
       </c>
       <c r="AK234" t="s" s="2">
         <v>79</v>
@@ -30372,7 +30351,7 @@
         <v>636</v>
       </c>
       <c r="AM234" t="s" s="2">
-        <v>707</v>
+        <v>637</v>
       </c>
       <c r="AN234" t="s" s="2">
         <v>79</v>
@@ -30383,14 +30362,12 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="C235" t="s" s="2">
-        <v>824</v>
-      </c>
+        <v>638</v>
+      </c>
+      <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
         <v>79</v>
       </c>
@@ -30411,13 +30388,13 @@
         <v>79</v>
       </c>
       <c r="K235" t="s" s="2">
-        <v>506</v>
+        <v>106</v>
       </c>
       <c r="L235" t="s" s="2">
-        <v>825</v>
+        <v>107</v>
       </c>
       <c r="M235" t="s" s="2">
-        <v>633</v>
+        <v>108</v>
       </c>
       <c r="N235" s="2"/>
       <c r="O235" s="2"/>
@@ -30468,28 +30445,28 @@
         <v>79</v>
       </c>
       <c r="AF235" t="s" s="2">
-        <v>631</v>
+        <v>109</v>
       </c>
       <c r="AG235" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH235" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI235" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ235" t="s" s="2">
-        <v>635</v>
+        <v>79</v>
       </c>
       <c r="AK235" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL235" t="s" s="2">
-        <v>636</v>
+        <v>110</v>
       </c>
       <c r="AM235" t="s" s="2">
-        <v>637</v>
+        <v>79</v>
       </c>
       <c r="AN235" t="s" s="2">
         <v>79</v>
@@ -30500,21 +30477,21 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E236" s="2"/>
       <c r="F236" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G236" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H236" t="s" s="2">
         <v>79</v>
@@ -30526,15 +30503,17 @@
         <v>79</v>
       </c>
       <c r="K236" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N236" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N236" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O236" s="2"/>
       <c r="P236" t="s" s="2">
         <v>79</v>
@@ -30583,19 +30562,19 @@
         <v>79</v>
       </c>
       <c r="AF236" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG236" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH236" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI236" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ236" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK236" t="s" s="2">
         <v>79</v>
@@ -30615,43 +30594,41 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E237" s="2"/>
       <c r="F237" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G237" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H237" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I237" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J237" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K237" t="s" s="2">
         <v>112</v>
       </c>
       <c r="L237" t="s" s="2">
-        <v>346</v>
+        <v>181</v>
       </c>
       <c r="M237" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>348</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N237" s="2"/>
       <c r="O237" s="2"/>
       <c r="P237" t="s" s="2">
         <v>79</v>
@@ -30700,7 +30677,7 @@
         <v>79</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>118</v>
+        <v>520</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>80</v>
@@ -30718,7 +30695,7 @@
         <v>79</v>
       </c>
       <c r="AL237" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="AM237" t="s" s="2">
         <v>79</v>
@@ -30732,42 +30709,46 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
-        <v>79</v>
+        <v>642</v>
       </c>
       <c r="E238" s="2"/>
       <c r="F238" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G238" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H238" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I238" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J238" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>181</v>
+        <v>643</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N238" s="2"/>
-      <c r="O238" s="2"/>
+        <v>644</v>
+      </c>
+      <c r="N238" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="O238" t="s" s="2">
+        <v>646</v>
+      </c>
       <c r="P238" t="s" s="2">
         <v>79</v>
       </c>
@@ -30815,28 +30796,28 @@
         <v>79</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>520</v>
+        <v>641</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH238" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI238" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK238" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL238" t="s" s="2">
-        <v>79</v>
+        <v>441</v>
       </c>
       <c r="AM238" t="s" s="2">
-        <v>79</v>
+        <v>442</v>
       </c>
       <c r="AN238" t="s" s="2">
         <v>79</v>
@@ -30847,18 +30828,18 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
-        <v>642</v>
+        <v>79</v>
       </c>
       <c r="E239" s="2"/>
       <c r="F239" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G239" t="s" s="2">
         <v>92</v>
@@ -30873,19 +30854,19 @@
         <v>79</v>
       </c>
       <c r="K239" t="s" s="2">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="N239" t="s" s="2">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="O239" t="s" s="2">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="P239" t="s" s="2">
         <v>79</v>
@@ -30895,7 +30876,7 @@
         <v>79</v>
       </c>
       <c r="S239" t="s" s="2">
-        <v>79</v>
+        <v>825</v>
       </c>
       <c r="T239" t="s" s="2">
         <v>79</v>
@@ -30910,13 +30891,13 @@
         <v>79</v>
       </c>
       <c r="X239" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="Y239" t="s" s="2">
-        <v>79</v>
+        <v>652</v>
       </c>
       <c r="Z239" t="s" s="2">
-        <v>79</v>
+        <v>653</v>
       </c>
       <c r="AA239" t="s" s="2">
         <v>79</v>
@@ -30934,7 +30915,7 @@
         <v>79</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>80</v>
@@ -30952,10 +30933,10 @@
         <v>79</v>
       </c>
       <c r="AL239" t="s" s="2">
-        <v>441</v>
+        <v>273</v>
       </c>
       <c r="AM239" t="s" s="2">
-        <v>442</v>
+        <v>274</v>
       </c>
       <c r="AN239" t="s" s="2">
         <v>79</v>
@@ -30966,10 +30947,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>647</v>
+        <v>719</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -30977,7 +30958,7 @@
       </c>
       <c r="E240" s="2"/>
       <c r="F240" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G240" t="s" s="2">
         <v>92</v>
@@ -30992,20 +30973,16 @@
         <v>79</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>648</v>
+        <v>107</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="O240" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N240" s="2"/>
+      <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
         <v>79</v>
       </c>
@@ -31014,7 +30991,7 @@
         <v>79</v>
       </c>
       <c r="S240" t="s" s="2">
-        <v>831</v>
+        <v>79</v>
       </c>
       <c r="T240" t="s" s="2">
         <v>79</v>
@@ -31029,13 +31006,13 @@
         <v>79</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>652</v>
+        <v>79</v>
       </c>
       <c r="Z240" t="s" s="2">
-        <v>653</v>
+        <v>79</v>
       </c>
       <c r="AA240" t="s" s="2">
         <v>79</v>
@@ -31053,7 +31030,7 @@
         <v>79</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>647</v>
+        <v>109</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>80</v>
@@ -31065,16 +31042,16 @@
         <v>79</v>
       </c>
       <c r="AJ240" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AK240" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>273</v>
+        <v>110</v>
       </c>
       <c r="AM240" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AN240" t="s" s="2">
         <v>79</v>
@@ -31085,21 +31062,21 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="E241" s="2"/>
       <c r="F241" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G241" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H241" t="s" s="2">
         <v>79</v>
@@ -31111,15 +31088,17 @@
         <v>79</v>
       </c>
       <c r="K241" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L241" t="s" s="2">
-        <v>107</v>
+        <v>346</v>
       </c>
       <c r="M241" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N241" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N241" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O241" s="2"/>
       <c r="P241" t="s" s="2">
         <v>79</v>
@@ -31156,31 +31135,31 @@
         <v>79</v>
       </c>
       <c r="AB241" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="AC241" t="s" s="2">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="AD241" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH241" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI241" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ241" t="s" s="2">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="AK241" t="s" s="2">
         <v>79</v>
@@ -31200,18 +31179,18 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="E242" s="2"/>
       <c r="F242" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G242" t="s" s="2">
         <v>81</v>
@@ -31223,21 +31202,23 @@
         <v>79</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>347</v>
+        <v>281</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="O242" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="O242" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P242" t="s" s="2">
         <v>79</v>
       </c>
@@ -31273,19 +31254,19 @@
         <v>79</v>
       </c>
       <c r="AB242" t="s" s="2">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="AC242" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="AD242" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>118</v>
+        <v>284</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>80</v>
@@ -31297,13 +31278,13 @@
         <v>79</v>
       </c>
       <c r="AJ242" t="s" s="2">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="AK242" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL242" t="s" s="2">
-        <v>110</v>
+        <v>285</v>
       </c>
       <c r="AM242" t="s" s="2">
         <v>79</v>
@@ -31317,10 +31298,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -31328,10 +31309,10 @@
       </c>
       <c r="E243" s="2"/>
       <c r="F243" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G243" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H243" t="s" s="2">
         <v>79</v>
@@ -31343,19 +31324,19 @@
         <v>93</v>
       </c>
       <c r="K243" t="s" s="2">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="N243" t="s" s="2">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="O243" t="s" s="2">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="P243" t="s" s="2">
         <v>79</v>
@@ -31404,13 +31385,13 @@
         <v>79</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH243" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI243" t="s" s="2">
         <v>79</v>
@@ -31422,7 +31403,7 @@
         <v>79</v>
       </c>
       <c r="AL243" t="s" s="2">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="AM243" t="s" s="2">
         <v>79</v>
@@ -31436,10 +31417,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>739</v>
+        <v>654</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -31450,7 +31431,7 @@
         <v>80</v>
       </c>
       <c r="G244" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H244" t="s" s="2">
         <v>79</v>
@@ -31459,22 +31440,20 @@
         <v>79</v>
       </c>
       <c r="J244" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>106</v>
+        <v>655</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>317</v>
+        <v>656</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="N244" s="2"/>
       <c r="O244" t="s" s="2">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="P244" t="s" s="2">
         <v>79</v>
@@ -31523,13 +31502,13 @@
         <v>79</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>321</v>
+        <v>654</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH244" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI244" t="s" s="2">
         <v>79</v>
@@ -31541,24 +31520,24 @@
         <v>79</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="AM244" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AN244" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO244" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -31569,7 +31548,7 @@
         <v>80</v>
       </c>
       <c r="G245" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H245" t="s" s="2">
         <v>79</v>
@@ -31581,18 +31560,18 @@
         <v>79</v>
       </c>
       <c r="K245" t="s" s="2">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>656</v>
+        <v>771</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>657</v>
-      </c>
-      <c r="N245" s="2"/>
-      <c r="O245" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="N245" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="O245" s="2"/>
       <c r="P245" t="s" s="2">
         <v>79</v>
       </c>
@@ -31640,13 +31619,13 @@
         <v>79</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH245" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI245" t="s" s="2">
         <v>79</v>
@@ -31658,24 +31637,24 @@
         <v>79</v>
       </c>
       <c r="AL245" t="s" s="2">
-        <v>401</v>
+        <v>79</v>
       </c>
       <c r="AM245" t="s" s="2">
-        <v>402</v>
+        <v>660</v>
       </c>
       <c r="AN245" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO245" t="s" s="2">
-        <v>404</v>
+        <v>79</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -31698,16 +31677,16 @@
         <v>79</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>627</v>
+        <v>166</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>777</v>
+        <v>662</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>778</v>
+        <v>663</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="O246" s="2"/>
       <c r="P246" t="s" s="2">
@@ -31757,7 +31736,7 @@
         <v>79</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>80</v>
@@ -31766,7 +31745,7 @@
         <v>92</v>
       </c>
       <c r="AI246" t="s" s="2">
-        <v>79</v>
+        <v>665</v>
       </c>
       <c r="AJ246" t="s" s="2">
         <v>104</v>
@@ -31775,10 +31754,10 @@
         <v>79</v>
       </c>
       <c r="AL246" t="s" s="2">
-        <v>79</v>
+        <v>666</v>
       </c>
       <c r="AM246" t="s" s="2">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AN246" t="s" s="2">
         <v>79</v>
@@ -31789,10 +31768,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -31815,18 +31794,20 @@
         <v>79</v>
       </c>
       <c r="K247" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="N247" t="s" s="2">
-        <v>664</v>
-      </c>
-      <c r="O247" s="2"/>
+        <v>670</v>
+      </c>
+      <c r="O247" t="s" s="2">
+        <v>671</v>
+      </c>
       <c r="P247" t="s" s="2">
         <v>79</v>
       </c>
@@ -31850,13 +31831,13 @@
         <v>79</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>79</v>
+        <v>673</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>79</v>
+        <v>674</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>79</v>
@@ -31874,7 +31855,7 @@
         <v>79</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>80</v>
@@ -31883,7 +31864,7 @@
         <v>92</v>
       </c>
       <c r="AI247" t="s" s="2">
-        <v>665</v>
+        <v>79</v>
       </c>
       <c r="AJ247" t="s" s="2">
         <v>104</v>
@@ -31892,24 +31873,24 @@
         <v>79</v>
       </c>
       <c r="AL247" t="s" s="2">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="AM247" t="s" s="2">
-        <v>666</v>
+        <v>110</v>
       </c>
       <c r="AN247" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO247" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -31932,19 +31913,19 @@
         <v>79</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>668</v>
+        <v>746</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>669</v>
+        <v>747</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>79</v>
@@ -31969,13 +31950,13 @@
         <v>79</v>
       </c>
       <c r="X248" t="s" s="2">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="Y248" t="s" s="2">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="Z248" t="s" s="2">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="AA248" t="s" s="2">
         <v>79</v>
@@ -31993,7 +31974,7 @@
         <v>79</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>80</v>
@@ -32011,7 +31992,7 @@
         <v>79</v>
       </c>
       <c r="AL248" t="s" s="2">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="AM248" t="s" s="2">
         <v>110</v>
@@ -32020,15 +32001,15 @@
         <v>79</v>
       </c>
       <c r="AO248" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -32036,7 +32017,7 @@
       </c>
       <c r="E249" s="2"/>
       <c r="F249" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G249" t="s" s="2">
         <v>92</v>
@@ -32051,20 +32032,18 @@
         <v>79</v>
       </c>
       <c r="K249" t="s" s="2">
-        <v>220</v>
+        <v>836</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>746</v>
+        <v>683</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="N249" t="s" s="2">
-        <v>677</v>
-      </c>
-      <c r="O249" t="s" s="2">
-        <v>678</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="O249" s="2"/>
       <c r="P249" t="s" s="2">
         <v>79</v>
       </c>
@@ -32088,13 +32067,13 @@
         <v>79</v>
       </c>
       <c r="X249" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>679</v>
+        <v>79</v>
       </c>
       <c r="Z249" t="s" s="2">
-        <v>680</v>
+        <v>79</v>
       </c>
       <c r="AA249" t="s" s="2">
         <v>79</v>
@@ -32112,16 +32091,16 @@
         <v>79</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH249" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI249" t="s" s="2">
-        <v>79</v>
+        <v>686</v>
       </c>
       <c r="AJ249" t="s" s="2">
         <v>104</v>
@@ -32130,10 +32109,10 @@
         <v>79</v>
       </c>
       <c r="AL249" t="s" s="2">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="AM249" t="s" s="2">
-        <v>110</v>
+        <v>688</v>
       </c>
       <c r="AN249" t="s" s="2">
         <v>79</v>
@@ -32144,10 +32123,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -32155,7 +32134,7 @@
       </c>
       <c r="E250" s="2"/>
       <c r="F250" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G250" t="s" s="2">
         <v>92</v>
@@ -32170,18 +32149,20 @@
         <v>79</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>842</v>
+        <v>220</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="N250" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="O250" s="2"/>
+        <v>698</v>
+      </c>
+      <c r="O250" t="s" s="2">
+        <v>699</v>
+      </c>
       <c r="P250" t="s" s="2">
         <v>79</v>
       </c>
@@ -32205,13 +32186,13 @@
         <v>79</v>
       </c>
       <c r="X250" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="Y250" t="s" s="2">
-        <v>79</v>
+        <v>700</v>
       </c>
       <c r="Z250" t="s" s="2">
-        <v>79</v>
+        <v>701</v>
       </c>
       <c r="AA250" t="s" s="2">
         <v>79</v>
@@ -32229,13 +32210,13 @@
         <v>79</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH250" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI250" t="s" s="2">
         <v>686</v>
@@ -32247,10 +32228,10 @@
         <v>79</v>
       </c>
       <c r="AL250" t="s" s="2">
-        <v>687</v>
+        <v>702</v>
       </c>
       <c r="AM250" t="s" s="2">
-        <v>688</v>
+        <v>110</v>
       </c>
       <c r="AN250" t="s" s="2">
         <v>79</v>
@@ -32261,10 +32242,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -32275,7 +32256,7 @@
         <v>80</v>
       </c>
       <c r="G251" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H251" t="s" s="2">
         <v>79</v>
@@ -32287,20 +32268,18 @@
         <v>79</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>698</v>
-      </c>
-      <c r="O251" t="s" s="2">
-        <v>699</v>
-      </c>
+        <v>706</v>
+      </c>
+      <c r="O251" s="2"/>
       <c r="P251" t="s" s="2">
         <v>79</v>
       </c>
@@ -32324,13 +32303,13 @@
         <v>79</v>
       </c>
       <c r="X251" t="s" s="2">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="Y251" t="s" s="2">
-        <v>700</v>
+        <v>79</v>
       </c>
       <c r="Z251" t="s" s="2">
-        <v>701</v>
+        <v>79</v>
       </c>
       <c r="AA251" t="s" s="2">
         <v>79</v>
@@ -32348,16 +32327,16 @@
         <v>79</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH251" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI251" t="s" s="2">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="AJ251" t="s" s="2">
         <v>104</v>
@@ -32366,132 +32345,15 @@
         <v>79</v>
       </c>
       <c r="AL251" t="s" s="2">
-        <v>702</v>
+        <v>636</v>
       </c>
       <c r="AM251" t="s" s="2">
-        <v>110</v>
+        <v>707</v>
       </c>
       <c r="AN251" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO251" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="B252" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="C252" s="2"/>
-      <c r="D252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E252" s="2"/>
-      <c r="F252" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G252" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L252" t="s" s="2">
-        <v>704</v>
-      </c>
-      <c r="M252" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N252" t="s" s="2">
-        <v>706</v>
-      </c>
-      <c r="O252" s="2"/>
-      <c r="P252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q252" s="2"/>
-      <c r="R252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF252" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="AG252" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH252" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI252" t="s" s="2">
-        <v>665</v>
-      </c>
-      <c r="AJ252" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL252" t="s" s="2">
-        <v>636</v>
-      </c>
-      <c r="AM252" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="AN252" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO252" t="s" s="2">
         <v>79</v>
       </c>
     </row>
